--- a/eGauge_data.xlsx
+++ b/eGauge_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16060" yWindow="460" windowWidth="10000" windowHeight="16960" tabRatio="500"/>
+    <workbookView xWindow="-460" yWindow="460" windowWidth="10000" windowHeight="16960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="204">
   <si>
     <t>eGauge1911</t>
   </si>
@@ -50,9 +50,6 @@
     <t>eGauge3167</t>
   </si>
   <si>
-    <t>Emmuneul (1473)</t>
-  </si>
-  <si>
     <t>eGauge2965</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>8/7/2012 1:45pm</t>
   </si>
   <si>
-    <t>eGauge2722</t>
-  </si>
-  <si>
     <t>5/3/2012 1:32pm</t>
   </si>
   <si>
@@ -284,15 +278,9 @@
     <t>8/7/2012 7:00pm</t>
   </si>
   <si>
-    <t>egauge4040</t>
-  </si>
-  <si>
     <t>12/6/2012 3:00pm</t>
   </si>
   <si>
-    <t>egauge3611</t>
-  </si>
-  <si>
     <t>egauge124</t>
   </si>
   <si>
@@ -311,9 +299,6 @@
     <t>9/24/2011 11:52AM</t>
   </si>
   <si>
-    <t>egauge2850</t>
-  </si>
-  <si>
     <t>egauge1955</t>
   </si>
   <si>
@@ -338,9 +323,6 @@
     <t>6/11/2012 11:24am</t>
   </si>
   <si>
-    <t>egauge3923</t>
-  </si>
-  <si>
     <t>egauge1008</t>
   </si>
   <si>
@@ -353,15 +335,9 @@
     <t>2/2/2011 1:14PM</t>
   </si>
   <si>
-    <t>egauge2701</t>
-  </si>
-  <si>
     <t>egauge2677</t>
   </si>
   <si>
-    <t>egauge2727</t>
-  </si>
-  <si>
     <t>8/6/2012 2:56pm</t>
   </si>
   <si>
@@ -377,30 +353,18 @@
     <t>12/12/2011 7:19pm</t>
   </si>
   <si>
-    <t>egauge2714</t>
-  </si>
-  <si>
     <t>egauge4306</t>
   </si>
   <si>
-    <t>egauge2965</t>
-  </si>
-  <si>
     <t>6/4/2012 11:45am</t>
   </si>
   <si>
-    <t>egauge63</t>
-  </si>
-  <si>
     <t>egauge713</t>
   </si>
   <si>
     <t>12/23/2010 1:12PM</t>
   </si>
   <si>
-    <t>egauge3067</t>
-  </si>
-  <si>
     <t>egauge1962</t>
   </si>
   <si>
@@ -416,30 +380,15 @@
     <t>4/22/2011 3:00am</t>
   </si>
   <si>
-    <t>egauge175</t>
-  </si>
-  <si>
     <t>egauge4226</t>
   </si>
   <si>
-    <t>egauge3610</t>
-  </si>
-  <si>
-    <t>egauge2966</t>
-  </si>
-  <si>
-    <t>egauge2066</t>
-  </si>
-  <si>
     <t>egauge10</t>
   </si>
   <si>
     <t>8/8/2008 1:00PM</t>
   </si>
   <si>
-    <t>egauge3065</t>
-  </si>
-  <si>
     <t>egauge1736</t>
   </si>
   <si>
@@ -467,9 +416,6 @@
     <t>egauge3134</t>
   </si>
   <si>
-    <t>egauge3173</t>
-  </si>
-  <si>
     <t>9/21/2012 7:04pm</t>
   </si>
   <si>
@@ -491,9 +437,6 @@
     <t>5/24/2011 3:01AM</t>
   </si>
   <si>
-    <t>egauge2130</t>
-  </si>
-  <si>
     <t>egauge4839</t>
   </si>
   <si>
@@ -515,9 +458,6 @@
     <t>9/16/2015 4:22pm</t>
   </si>
   <si>
-    <t>egauge4336</t>
-  </si>
-  <si>
     <t>11/30/2012 6:21pm</t>
   </si>
   <si>
@@ -533,9 +473,6 @@
     <t>5/19/2011 7:23PM</t>
   </si>
   <si>
-    <t>egauge2543</t>
-  </si>
-  <si>
     <t>5/9/2012 3:47pm</t>
   </si>
   <si>
@@ -554,9 +491,6 @@
     <t>egauge5731</t>
   </si>
   <si>
-    <t>egauge1004</t>
-  </si>
-  <si>
     <t>egauge502</t>
   </si>
   <si>
@@ -572,9 +506,6 @@
     <t>11/3/2011 5:17PM</t>
   </si>
   <si>
-    <t>egauge114</t>
-  </si>
-  <si>
     <t>egauge1009</t>
   </si>
   <si>
@@ -599,9 +530,6 @@
     <t>8/12/2010 2:00pm</t>
   </si>
   <si>
-    <t>egauge3842</t>
-  </si>
-  <si>
     <t>egauge1805</t>
   </si>
   <si>
@@ -611,24 +539,12 @@
     <t>egauge704</t>
   </si>
   <si>
-    <t>egauge49</t>
-  </si>
-  <si>
-    <t>egauge2705</t>
-  </si>
-  <si>
-    <t>egauge116</t>
-  </si>
-  <si>
     <t>egauge1230</t>
   </si>
   <si>
     <t>6/14/2011 2:00pm</t>
   </si>
   <si>
-    <t>egauge2851</t>
-  </si>
-  <si>
     <t>9/11/2012 8:01pm</t>
   </si>
   <si>
@@ -653,12 +569,6 @@
     <t>3/21/2012 5:45pm</t>
   </si>
   <si>
-    <t>egauge3614</t>
-  </si>
-  <si>
-    <t>egauge2448</t>
-  </si>
-  <si>
     <t>4/16/2012 2:10pm</t>
   </si>
   <si>
@@ -692,12 +602,6 @@
     <t>8/23/2011 1:36am</t>
   </si>
   <si>
-    <t>egauge117</t>
-  </si>
-  <si>
-    <t>1/6/2010 12:00pm</t>
-  </si>
-  <si>
     <t>egauge1625</t>
   </si>
   <si>
@@ -716,19 +620,22 @@
     <t>2/4/2012 2:00pm</t>
   </si>
   <si>
-    <t>egauge3980</t>
-  </si>
-  <si>
     <t>egauge804</t>
   </si>
   <si>
     <t>8/4/2010 12:59pm</t>
   </si>
   <si>
-    <t xml:space="preserve">Williamstown(20977) </t>
-  </si>
-  <si>
     <t>404'ed</t>
+  </si>
+  <si>
+    <t>First record</t>
+  </si>
+  <si>
+    <t>Emmuneul(1473)</t>
+  </si>
+  <si>
+    <t>Williamstown(20977)</t>
   </si>
 </sst>
 </file>
@@ -800,13 +707,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1092,36 +1000,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="F1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,11 +1043,12 @@
       <c r="C2">
         <v>-89.400002000000001</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D2" s="4"/>
+      <c r="F2" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1145,11 +1058,14 @@
       <c r="C3">
         <v>-78.824996999999996</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1159,1823 +1075,1418 @@
       <c r="C4">
         <v>-105.261002</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F4" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>39.764420000000001</v>
+      </c>
+      <c r="C5">
+        <v>-104.895599</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>41.500236999999998</v>
+      </c>
+      <c r="C6">
+        <v>-81.587288000000001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>47.603122999999997</v>
+      </c>
+      <c r="C7">
+        <v>-122.29460899999999</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>30.371807</v>
+      </c>
+      <c r="C8">
+        <v>-97.904510000000002</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>44.179015999999997</v>
+      </c>
+      <c r="C9">
+        <v>-73.614326000000005</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>47.824818</v>
+      </c>
+      <c r="C10">
+        <v>-122.32338</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>40.005920000000003</v>
+      </c>
+      <c r="C11">
+        <v>-105.234261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>47.691581999999997</v>
+      </c>
+      <c r="C12">
+        <v>-122.38608600000001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>36.968913999999998</v>
+      </c>
+      <c r="C13">
+        <v>-122.007751</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>26.184977</v>
+      </c>
+      <c r="C14">
+        <v>-81.806601999999998</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14">
+        <v>43.028931</v>
+      </c>
+      <c r="H14">
+        <v>-89.403603000000004</v>
+      </c>
+      <c r="I14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>47.759827000000001</v>
+      </c>
+      <c r="C15">
+        <v>-122.234375</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15">
+        <v>39.764614000000002</v>
+      </c>
+      <c r="H15">
+        <v>-104.894226</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>40.580002</v>
+      </c>
+      <c r="C16">
+        <v>-105.08000199999999</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="H16">
+        <v>-105.870003</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>40.075496999999999</v>
+      </c>
+      <c r="C17">
+        <v>-105.19381</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="G17">
         <v>39.978000000000002</v>
       </c>
-      <c r="C5">
+      <c r="H17">
         <v>-105.261002</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>47.680798000000003</v>
+      </c>
+      <c r="C18">
+        <v>-122.26866099999999</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="G18">
         <v>42.25</v>
       </c>
-      <c r="C6">
+      <c r="H18">
         <v>-72.676537999999994</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>39.764420000000001</v>
-      </c>
-      <c r="C7">
-        <v>-104.895599</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>41.500236999999998</v>
-      </c>
-      <c r="C8">
-        <v>-81.587288000000001</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>47.603122999999997</v>
-      </c>
-      <c r="C9">
-        <v>-122.29460899999999</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>40.637428</v>
+      </c>
+      <c r="C19">
+        <v>-105.081734</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>39.927</v>
+      </c>
+      <c r="H19">
+        <v>-105.038116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>39.748362999999998</v>
+      </c>
+      <c r="C20">
+        <v>-104.895256</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>29.506</v>
+      </c>
+      <c r="H20">
+        <v>-98.577599000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>30.420898000000001</v>
+      </c>
+      <c r="C21">
+        <v>-97.741905000000003</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>39.765999999999998</v>
+      </c>
+      <c r="H21">
+        <v>-104.88382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>44.322685</v>
+      </c>
+      <c r="C22">
+        <v>-93.973312000000007</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>39.988</v>
+      </c>
+      <c r="H22">
+        <v>-105.221931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>40.048099999999998</v>
+      </c>
+      <c r="C23">
+        <v>-105.01818799999999</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23">
+        <v>43.028931</v>
+      </c>
+      <c r="H23">
+        <v>-89.403603000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>43.023311999999997</v>
+      </c>
+      <c r="C24">
+        <v>-89.636925000000005</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>40.003999999999998</v>
+      </c>
+      <c r="H24">
+        <v>-105.243858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>39.765450000000001</v>
+      </c>
+      <c r="C25">
+        <v>-104.87966900000001</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="H25">
+        <v>-118544502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>39.700001</v>
+      </c>
+      <c r="C26">
+        <v>-105.129997</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="H26">
+        <v>-105.870003</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>39.933898999999997</v>
+      </c>
+      <c r="C27">
+        <v>-104.929512</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>30.431999999999999</v>
+      </c>
+      <c r="H27">
+        <v>-97.689796000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28">
+        <v>30.228594000000001</v>
+      </c>
+      <c r="C28">
+        <v>-97.813805000000002</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28">
+        <v>40.015000000000001</v>
+      </c>
+      <c r="H28">
+        <v>-105.19940200000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>39.758738999999998</v>
+      </c>
+      <c r="C29">
+        <v>-104.868843</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <v>42.743000000000002</v>
+      </c>
+      <c r="H29">
+        <v>-73.173669000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30">
+        <v>39.752983</v>
+      </c>
+      <c r="C30">
+        <v>-104.891525</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30">
+        <v>42.743000000000002</v>
+      </c>
+      <c r="H30">
+        <v>-73.173669000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31">
+        <v>39.517502</v>
+      </c>
+      <c r="C31">
+        <v>-104.69255800000001</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31">
         <v>42.256</v>
       </c>
-      <c r="C10">
+      <c r="H31">
         <v>-72.848844999999997</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>30.371807</v>
-      </c>
-      <c r="C11">
-        <v>-97.904510000000002</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>44.179015999999997</v>
-      </c>
-      <c r="C12">
-        <v>-73.614326000000005</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>39.927</v>
-      </c>
-      <c r="C13">
-        <v>-105.038116</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>29.506</v>
-      </c>
-      <c r="C14">
-        <v>-98.577599000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>39.765999999999998</v>
-      </c>
-      <c r="C15">
-        <v>-104.88382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>39.988</v>
-      </c>
-      <c r="C16">
-        <v>-105.221931</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>47.824818</v>
-      </c>
-      <c r="C17">
-        <v>-122.32338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>40.005920000000003</v>
-      </c>
-      <c r="C18">
-        <v>-105.234261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>43.028931</v>
-      </c>
-      <c r="C19">
-        <v>-89.403603000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>47.691581999999997</v>
-      </c>
-      <c r="C20">
-        <v>-122.38608600000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>42.743000000000002</v>
-      </c>
-      <c r="C21">
-        <v>-73.173669000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>36.968913999999998</v>
-      </c>
-      <c r="C22">
-        <v>-122.007751</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>26.184977</v>
-      </c>
-      <c r="C23">
-        <v>-81.806601999999998</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>47.759827000000001</v>
-      </c>
-      <c r="C24">
-        <v>-122.234375</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>40.580002</v>
-      </c>
-      <c r="C25">
-        <v>-105.08000199999999</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>40.003999999999998</v>
-      </c>
-      <c r="C26">
-        <v>-105.243858</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>40.075496999999999</v>
-      </c>
-      <c r="C27">
-        <v>-105.19381</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28">
-        <v>34.270000000000003</v>
-      </c>
-      <c r="C28">
-        <v>-118544502</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29">
-        <v>47.680798000000003</v>
-      </c>
-      <c r="C29">
-        <v>-122.26866099999999</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30">
-        <v>40.637428</v>
-      </c>
-      <c r="C30">
-        <v>-105.081734</v>
-      </c>
-      <c r="D30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31">
-        <v>39.748362999999998</v>
-      </c>
-      <c r="C31">
-        <v>-104.895256</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B32">
-        <v>30.420898000000001</v>
+        <v>40.020766999999999</v>
       </c>
       <c r="C32">
-        <v>-97.741905000000003</v>
+        <v>-105.117912</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B33">
-        <v>44.322685</v>
+        <v>47.641212000000003</v>
       </c>
       <c r="C33">
-        <v>-93.973312000000007</v>
+        <v>-122.20562</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B34">
-        <v>40.048099999999998</v>
+        <v>37.339770999999999</v>
       </c>
       <c r="C34">
-        <v>-105.01818799999999</v>
+        <v>-122.054665</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>43.023311999999997</v>
+        <v>39.583961000000002</v>
       </c>
       <c r="C35">
-        <v>-89.636925000000005</v>
+        <v>-104.695038</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B36">
-        <v>39.765450000000001</v>
+        <v>39.763255999999998</v>
       </c>
       <c r="C36">
-        <v>-104.87966900000001</v>
+        <v>-104.894783</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>87</v>
       </c>
       <c r="B37">
-        <v>37.470001000000003</v>
+        <v>39.909477000000003</v>
       </c>
       <c r="C37">
-        <v>-105.870003</v>
+        <v>-105.040543</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>233</v>
+      <c r="A38" t="s">
+        <v>89</v>
       </c>
       <c r="B38">
-        <v>42.743000000000002</v>
+        <v>30.5</v>
       </c>
       <c r="C38">
-        <v>-73.173669000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>-97.699996999999996</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>91</v>
       </c>
       <c r="B39">
-        <v>39.700001</v>
+        <v>39.758674999999997</v>
       </c>
       <c r="C39">
-        <v>-105.129997</v>
+        <v>-104.86882</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>92</v>
       </c>
       <c r="B40">
-        <v>39.933898999999997</v>
+        <v>39.758659000000002</v>
       </c>
       <c r="C40">
-        <v>-104.929512</v>
+        <v>-104.868782</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>95</v>
       </c>
       <c r="B41">
-        <v>30.431999999999999</v>
+        <v>39.762225999999998</v>
       </c>
       <c r="C41">
-        <v>-97.689796000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>-104.869179</v>
+      </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>96</v>
       </c>
       <c r="B42">
-        <v>40.015000000000001</v>
+        <v>39.764519</v>
       </c>
       <c r="C42">
-        <v>-105.19940200000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>-104.893929</v>
+      </c>
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>97</v>
       </c>
       <c r="B43">
-        <v>30.228594000000001</v>
+        <v>39.764626</v>
       </c>
       <c r="C43">
-        <v>-97.813805000000002</v>
+        <v>-104.894302</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>99</v>
       </c>
       <c r="B44">
-        <v>39.758738999999998</v>
+        <v>37.200001</v>
       </c>
       <c r="C44">
-        <v>-104.868843</v>
+        <v>-121.900002</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>101</v>
       </c>
       <c r="B45">
-        <v>39.762225999999998</v>
+        <v>29.59</v>
       </c>
       <c r="C45">
-        <v>-104.869179</v>
+        <v>-98.480002999999996</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>105</v>
       </c>
       <c r="B46">
-        <v>39.752983</v>
+        <v>32.965949999999999</v>
       </c>
       <c r="C46">
-        <v>-104.891525</v>
+        <v>-96.831207000000006</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>107</v>
       </c>
       <c r="B47">
-        <v>39.517502</v>
+        <v>47.533684000000001</v>
       </c>
       <c r="C47">
-        <v>-104.69255800000001</v>
+        <v>-122.036987</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>111</v>
       </c>
       <c r="B48">
-        <v>40.020766999999999</v>
+        <v>40.194262999999999</v>
       </c>
       <c r="C48">
-        <v>-105.117912</v>
+        <v>-75.187827999999996</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>113</v>
       </c>
       <c r="B49">
-        <v>47.641212000000003</v>
+        <v>39.758839000000002</v>
       </c>
       <c r="C49">
-        <v>-122.20562</v>
+        <v>-104.868729</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>73</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>116</v>
       </c>
       <c r="B50">
-        <v>37.339770999999999</v>
+        <v>33</v>
       </c>
       <c r="C50">
-        <v>-122.054665</v>
+        <v>-117</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>119</v>
       </c>
       <c r="B51">
-        <v>39.583961000000002</v>
+        <v>40.049754999999998</v>
       </c>
       <c r="C51">
-        <v>-104.695038</v>
+        <v>-105.27956399999999</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>77</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>121</v>
       </c>
       <c r="B52">
-        <v>39.763255999999998</v>
+        <v>32.671967000000002</v>
       </c>
       <c r="C52">
-        <v>-104.894783</v>
+        <v>-97.395652999999996</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="B53">
-        <v>39.775269000000002</v>
+        <v>39.748832999999998</v>
       </c>
       <c r="C53">
-        <v>-104.79508199999999</v>
+        <v>-104.888458</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B54">
-        <v>43.028931</v>
+        <v>30.349385999999999</v>
       </c>
       <c r="C54">
-        <v>-89.403603000000004</v>
+        <v>-97.764617999999999</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="B55">
-        <v>39.764614000000002</v>
+        <v>38.075161000000001</v>
       </c>
       <c r="C55">
-        <v>-104.894226</v>
+        <v>-104.99198199999999</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="B56">
-        <v>41.500236999999998</v>
+        <v>36.970001000000003</v>
       </c>
       <c r="C56">
-        <v>-81.587288000000001</v>
+        <v>-121.88999200000001</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B57">
-        <v>47.680798000000003</v>
+        <v>31.41431</v>
       </c>
       <c r="C57">
-        <v>-122.26866099999999</v>
+        <v>-97.767471</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B58">
-        <v>39.909477000000003</v>
+        <v>37.309364000000002</v>
       </c>
       <c r="C58">
-        <v>-105.040543</v>
+        <v>-122.06914500000001</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B59">
-        <v>30.5</v>
+        <v>44.040999999999997</v>
       </c>
       <c r="C59">
-        <v>-97.699996999999996</v>
+        <v>-123.070999</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="B60">
-        <v>47.641212000000003</v>
+        <v>39.900002000000001</v>
       </c>
       <c r="C60">
-        <v>-122.20562</v>
+        <v>-105.150002</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B61">
-        <v>39.758674999999997</v>
+        <v>39.928691999999998</v>
       </c>
       <c r="C61">
-        <v>-104.86882</v>
+        <v>-105.034462</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="B62">
-        <v>39.758659000000002</v>
+        <v>21.325379999999999</v>
       </c>
       <c r="C62">
-        <v>-104.868782</v>
+        <v>-157.858261</v>
       </c>
       <c r="D62" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="B63">
-        <v>39.762225999999998</v>
+        <v>33.322285000000001</v>
       </c>
       <c r="C63">
-        <v>-104.869179</v>
+        <v>-111.940079</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="B64">
-        <v>39.764519</v>
+        <v>29.637353999999998</v>
       </c>
       <c r="C64">
-        <v>-104.893929</v>
+        <v>-98.592751000000007</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="B65">
-        <v>39.764626</v>
+        <v>40</v>
       </c>
       <c r="C65">
-        <v>-104.894302</v>
+        <v>-104</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="B66">
-        <v>39.752983</v>
+        <v>39.764510999999999</v>
       </c>
       <c r="C66">
-        <v>-104.891525</v>
+        <v>-104.894234</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="B67">
-        <v>37.200001</v>
+        <v>37.274856999999997</v>
       </c>
       <c r="C67">
-        <v>-121.900002</v>
+        <v>-121.89310500000001</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="B68">
-        <v>29.59</v>
+        <v>37.359104000000002</v>
       </c>
       <c r="C68">
-        <v>-98.480002999999996</v>
+        <v>-122.016701</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="B69">
-        <v>39.758738999999998</v>
+        <v>40</v>
       </c>
       <c r="C69">
-        <v>-104.868843</v>
+        <v>-104</v>
       </c>
       <c r="D69" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="B70">
-        <v>37.470001000000003</v>
+        <v>38.624606999999997</v>
       </c>
       <c r="C70">
-        <v>-105.870003</v>
+        <v>-90.184974999999994</v>
       </c>
       <c r="D70" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="B71">
-        <v>39.764420000000001</v>
+        <v>40.069018999999997</v>
       </c>
       <c r="C71">
-        <v>-104.895599</v>
+        <v>-105.032455</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="B72">
-        <v>32.965949999999999</v>
+        <v>37.461109</v>
       </c>
       <c r="C72">
-        <v>-96.831207000000006</v>
+        <v>-122.115059</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="B73">
-        <v>47.533684000000001</v>
+        <v>39.761780000000002</v>
       </c>
       <c r="C73">
-        <v>-122.036987</v>
+        <v>-105.234352</v>
       </c>
       <c r="D73" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="B74">
-        <v>39.763255999999998</v>
+        <v>29.662882</v>
       </c>
       <c r="C74">
-        <v>-104.894783</v>
+        <v>-98.433266000000003</v>
       </c>
       <c r="D74" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="B75">
-        <v>30.371807</v>
+        <v>40.015804000000003</v>
       </c>
       <c r="C75">
-        <v>-97.904510000000002</v>
+        <v>-105.450264</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="B76">
-        <v>39.933898999999997</v>
+        <v>30.405268</v>
       </c>
       <c r="C76">
-        <v>-104.929512</v>
+        <v>-84.269553999999999</v>
       </c>
       <c r="D76" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="B77">
-        <v>40.194262999999999</v>
+        <v>30.030000999999999</v>
       </c>
       <c r="C77">
-        <v>-75.187827999999996</v>
+        <v>-97.75</v>
       </c>
       <c r="D77" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="B78">
-        <v>43.023311999999997</v>
+        <v>44.040999999999997</v>
       </c>
       <c r="C78">
-        <v>-89.636925000000005</v>
+        <v>-123.070999</v>
       </c>
       <c r="D78" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="B79">
-        <v>39.758839000000002</v>
+        <v>39.974941000000001</v>
       </c>
       <c r="C79">
-        <v>-104.868729</v>
+        <v>-105.265793</v>
       </c>
       <c r="D79" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="B80">
-        <v>33</v>
+        <v>48.535049000000001</v>
       </c>
       <c r="C80">
-        <v>-117</v>
+        <v>-122.87449599999999</v>
       </c>
       <c r="D80" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="B81">
-        <v>40.020766999999999</v>
+        <v>37.270893000000001</v>
       </c>
       <c r="C81">
-        <v>-105.117912</v>
+        <v>-121.82781199999999</v>
       </c>
       <c r="D81" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="B82">
-        <v>47.759827000000001</v>
+        <v>32.799145000000003</v>
       </c>
       <c r="C82">
-        <v>-122.234375</v>
+        <v>-96.706528000000006</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="B83">
-        <v>30.420898000000001</v>
+        <v>39.963005000000003</v>
       </c>
       <c r="C83">
-        <v>-97.741905000000003</v>
+        <v>-105.154884</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="B84">
-        <v>26.184977</v>
+        <v>38.568900999999997</v>
       </c>
       <c r="C84">
-        <v>-81.806601999999998</v>
+        <v>-104.415817</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="B85">
-        <v>40.049754999999998</v>
+        <v>20.902788000000001</v>
       </c>
       <c r="C85">
-        <v>-105.27956399999999</v>
+        <v>-156.48947100000001</v>
       </c>
       <c r="D85" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="B86">
-        <v>39.748362999999998</v>
+        <v>39.775269000000002</v>
       </c>
       <c r="C86">
-        <v>-104.895256</v>
+        <v>-104.79508199999999</v>
       </c>
       <c r="D86" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87">
-        <v>32.671967000000002</v>
-      </c>
-      <c r="C87">
-        <v>-97.395652999999996</v>
-      </c>
-      <c r="D87" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>140</v>
-      </c>
-      <c r="B88">
-        <v>39.748832999999998</v>
-      </c>
-      <c r="C88">
-        <v>-104.888458</v>
-      </c>
-      <c r="D88" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>142</v>
-      </c>
-      <c r="B89">
-        <v>30.349385999999999</v>
-      </c>
-      <c r="C89">
-        <v>-97.764617999999999</v>
-      </c>
-      <c r="D89" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>144</v>
-      </c>
-      <c r="B90">
-        <v>38.075161000000001</v>
-      </c>
-      <c r="C90">
-        <v>-104.99198199999999</v>
-      </c>
-      <c r="D90" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>147</v>
-      </c>
-      <c r="B91">
-        <v>47.824818</v>
-      </c>
-      <c r="C91">
-        <v>-122.32338</v>
-      </c>
-      <c r="D91" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92">
-        <v>36.970001000000003</v>
-      </c>
-      <c r="C92">
-        <v>-121.88999200000001</v>
-      </c>
-      <c r="D92" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>151</v>
-      </c>
-      <c r="B93">
-        <v>31.41431</v>
-      </c>
-      <c r="C93">
-        <v>-97.767471</v>
-      </c>
-      <c r="D93" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>153</v>
-      </c>
-      <c r="B94">
-        <v>37.309364000000002</v>
-      </c>
-      <c r="C94">
-        <v>-122.06914500000001</v>
-      </c>
-      <c r="D94" t="s">
-        <v>154</v>
-      </c>
       <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>155</v>
-      </c>
-      <c r="B95">
-        <v>30.228594000000001</v>
-      </c>
-      <c r="C95">
-        <v>-97.813805000000002</v>
-      </c>
-      <c r="D95" t="s">
-        <v>60</v>
-      </c>
       <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>156</v>
-      </c>
-      <c r="B96">
-        <v>44.040999999999997</v>
-      </c>
-      <c r="C96">
-        <v>-123.070999</v>
-      </c>
-      <c r="D96" t="s">
-        <v>157</v>
-      </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>159</v>
-      </c>
-      <c r="B97">
-        <v>39.900002000000001</v>
-      </c>
-      <c r="C97">
-        <v>-105.150002</v>
-      </c>
-      <c r="D97" t="s">
-        <v>160</v>
-      </c>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>161</v>
-      </c>
-      <c r="B98">
-        <v>39.928691999999998</v>
-      </c>
-      <c r="C98">
-        <v>-105.034462</v>
-      </c>
-      <c r="D98" t="s">
-        <v>162</v>
-      </c>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>163</v>
-      </c>
-      <c r="B99">
-        <v>35.823002000000002</v>
-      </c>
-      <c r="C99">
-        <v>-78.824996999999996</v>
-      </c>
-      <c r="D99" t="s">
-        <v>164</v>
-      </c>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>165</v>
-      </c>
-      <c r="B100">
-        <v>21.325379999999999</v>
-      </c>
-      <c r="C100">
-        <v>-157.858261</v>
-      </c>
-      <c r="D100" t="s">
-        <v>166</v>
-      </c>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>167</v>
-      </c>
-      <c r="B101">
-        <v>33.322285000000001</v>
-      </c>
-      <c r="C101">
-        <v>-111.940079</v>
-      </c>
-      <c r="D101" t="s">
-        <v>168</v>
-      </c>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>169</v>
-      </c>
-      <c r="B102">
-        <v>40.005920000000003</v>
-      </c>
-      <c r="C102">
-        <v>-105.234261</v>
-      </c>
-      <c r="D102" t="s">
-        <v>170</v>
-      </c>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>171</v>
-      </c>
-      <c r="B103">
-        <v>29.637353999999998</v>
-      </c>
-      <c r="C103">
-        <v>-98.592751000000007</v>
-      </c>
-      <c r="D103" t="s">
-        <v>172</v>
-      </c>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>173</v>
-      </c>
-      <c r="B104">
-        <v>40</v>
-      </c>
-      <c r="C104">
-        <v>-104</v>
-      </c>
-      <c r="D104" t="s">
-        <v>174</v>
-      </c>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>176</v>
-      </c>
-      <c r="B105">
-        <v>37.339770999999999</v>
-      </c>
-      <c r="C105">
-        <v>-122.054665</v>
-      </c>
-      <c r="D105" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>178</v>
-      </c>
-      <c r="B106">
-        <v>39.764510999999999</v>
-      </c>
-      <c r="C106">
-        <v>-104.894234</v>
-      </c>
-      <c r="D106" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>180</v>
-      </c>
-      <c r="B107">
-        <v>37.274856999999997</v>
-      </c>
-      <c r="C107">
-        <v>-121.89310500000001</v>
-      </c>
-      <c r="D107" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>182</v>
-      </c>
-      <c r="B108">
-        <v>40.075496999999999</v>
-      </c>
-      <c r="C108">
-        <v>-105.19381</v>
-      </c>
-      <c r="D108" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>183</v>
-      </c>
-      <c r="B109">
-        <v>37.359104000000002</v>
-      </c>
-      <c r="C109">
-        <v>-122.016701</v>
-      </c>
-      <c r="D109" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>185</v>
-      </c>
-      <c r="B110">
-        <v>40</v>
-      </c>
-      <c r="C110">
-        <v>-104</v>
-      </c>
-      <c r="D110" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>187</v>
-      </c>
-      <c r="B111">
-        <v>38.624606999999997</v>
-      </c>
-      <c r="C111">
-        <v>-90.184974999999994</v>
-      </c>
-      <c r="D111" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>189</v>
-      </c>
-      <c r="B112">
-        <v>40.069018999999997</v>
-      </c>
-      <c r="C112">
-        <v>-105.032455</v>
-      </c>
-      <c r="D112" t="s">
-        <v>190</v>
-      </c>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>191</v>
-      </c>
-      <c r="B113">
-        <v>40.580002</v>
-      </c>
-      <c r="C113">
-        <v>-105.08000199999999</v>
-      </c>
-      <c r="D113" t="s">
-        <v>30</v>
-      </c>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>192</v>
-      </c>
-      <c r="B114">
-        <v>37.461109</v>
-      </c>
-      <c r="C114">
-        <v>-122.115059</v>
-      </c>
-      <c r="D114" t="s">
-        <v>193</v>
-      </c>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>195</v>
-      </c>
-      <c r="B115">
-        <v>40.637428</v>
-      </c>
-      <c r="C115">
-        <v>-105.081734</v>
-      </c>
-      <c r="D115" t="s">
-        <v>38</v>
-      </c>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>196</v>
-      </c>
-      <c r="B116">
-        <v>39.583961000000002</v>
-      </c>
-      <c r="C116">
-        <v>-104.695038</v>
-      </c>
-      <c r="D116" t="s">
-        <v>76</v>
-      </c>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>197</v>
-      </c>
-      <c r="B117">
-        <v>39.700001</v>
-      </c>
-      <c r="C117">
-        <v>-105.129997</v>
-      </c>
-      <c r="D117" t="s">
-        <v>54</v>
-      </c>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>198</v>
-      </c>
-      <c r="B118">
-        <v>39.761780000000002</v>
-      </c>
-      <c r="C118">
-        <v>-105.234352</v>
-      </c>
-      <c r="D118" t="s">
-        <v>199</v>
-      </c>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>200</v>
-      </c>
-      <c r="B119">
-        <v>47.691581999999997</v>
-      </c>
-      <c r="C119">
-        <v>-122.38608600000001</v>
-      </c>
-      <c r="D119" t="s">
-        <v>201</v>
-      </c>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>203</v>
-      </c>
-      <c r="B120">
-        <v>29.662882</v>
-      </c>
-      <c r="C120">
-        <v>-98.433266000000003</v>
-      </c>
-      <c r="D120" t="s">
-        <v>204</v>
-      </c>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>205</v>
-      </c>
-      <c r="B121">
-        <v>40.015804000000003</v>
-      </c>
-      <c r="C121">
-        <v>-105.450264</v>
-      </c>
-      <c r="D121" t="s">
-        <v>206</v>
-      </c>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>207</v>
-      </c>
-      <c r="B122">
-        <v>30.405268</v>
-      </c>
-      <c r="C122">
-        <v>-84.269553999999999</v>
-      </c>
-      <c r="D122" t="s">
-        <v>208</v>
-      </c>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>209</v>
-      </c>
-      <c r="B123">
-        <v>39.517502</v>
-      </c>
-      <c r="C123">
-        <v>-104.69255800000001</v>
-      </c>
-      <c r="D123" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>210</v>
-      </c>
-      <c r="B124">
-        <v>44.179015999999997</v>
-      </c>
-      <c r="C124">
-        <v>-73.614326000000005</v>
-      </c>
-      <c r="D124" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>212</v>
-      </c>
-      <c r="B125">
-        <v>30.030000999999999</v>
-      </c>
-      <c r="C125">
-        <v>-97.75</v>
-      </c>
-      <c r="D125" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>214</v>
-      </c>
-      <c r="B126">
-        <v>44.040999999999997</v>
-      </c>
-      <c r="C126">
-        <v>-123.070999</v>
-      </c>
-      <c r="D126" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>216</v>
-      </c>
-      <c r="B127">
-        <v>39.974941000000001</v>
-      </c>
-      <c r="C127">
-        <v>-105.265793</v>
-      </c>
-      <c r="D127" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>218</v>
-      </c>
-      <c r="B128">
-        <v>48.535049000000001</v>
-      </c>
-      <c r="C128">
-        <v>-122.87449599999999</v>
-      </c>
-      <c r="D128" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>220</v>
-      </c>
-      <c r="B129">
-        <v>37.270893000000001</v>
-      </c>
-      <c r="C129">
-        <v>-121.82781199999999</v>
-      </c>
-      <c r="D129" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>222</v>
-      </c>
-      <c r="B130">
-        <v>39.977798</v>
-      </c>
-      <c r="C130">
-        <v>105.265503</v>
-      </c>
-      <c r="D130" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>224</v>
-      </c>
-      <c r="B131">
-        <v>32.799145000000003</v>
-      </c>
-      <c r="C131">
-        <v>-96.706528000000006</v>
-      </c>
-      <c r="D131" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>225</v>
-      </c>
-      <c r="B132">
-        <v>39.963005000000003</v>
-      </c>
-      <c r="C132">
-        <v>-105.154884</v>
-      </c>
-      <c r="D132" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>228</v>
-      </c>
-      <c r="B133">
-        <v>38.568900999999997</v>
-      </c>
-      <c r="C133">
-        <v>-104.415817</v>
-      </c>
-      <c r="D133" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>230</v>
-      </c>
-      <c r="B134">
-        <v>44.322685</v>
-      </c>
-      <c r="C134">
-        <v>-93.973312000000007</v>
-      </c>
-      <c r="D134" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>231</v>
-      </c>
-      <c r="B135">
-        <v>20.902788000000001</v>
-      </c>
-      <c r="C135">
-        <v>-156.48947100000001</v>
-      </c>
-      <c r="D135" t="s">
-        <v>232</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
